--- a/LIAM HOURS/INVOICE - DATA ANALYST CONSULTANT.xlsx
+++ b/LIAM HOURS/INVOICE - DATA ANALYST CONSULTANT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liamphanmusic/Documents/GitHub/Capstone-Project---A-World-Tour-in-Data/LIAM HOURS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F22159-F3A0-0043-82D9-A4E5E11DD34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF767EB-C07E-E544-9544-FB15CB2F8541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Liam Phan - Data Analyst Consultant</t>
   </si>
@@ -107,13 +107,19 @@
   <si>
     <t>BERNARD SAROSI</t>
   </si>
+  <si>
+    <t>Friday Call - Code review</t>
+  </si>
+  <si>
+    <t>27.02.2024 - 03.03.2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0[$CHF]"/>
+    <numFmt numFmtId="164" formatCode="#,##0[$CHF]"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -429,16 +435,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -450,68 +456,27 @@
     <xf numFmtId="10" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -521,11 +486,52 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -870,7 +876,7 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G12" sqref="G12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -916,17 +922,17 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -948,17 +954,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="50">
-        <v>45349</v>
+      <c r="G3" s="52" t="s">
+        <v>24</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="8"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -980,7 +986,7 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="27"/>
@@ -1010,17 +1016,17 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="8"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1042,17 +1048,17 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="51" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="24">
+      <c r="G6" s="47">
         <v>1</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="8"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1102,17 +1108,17 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="8"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1134,15 +1140,15 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="27"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1164,7 +1170,7 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="27"/>
@@ -1194,12 +1200,12 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="29"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="27"/>
       <c r="D11" s="7"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="31"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="27"/>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
@@ -1222,12 +1228,12 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="29"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="27"/>
       <c r="D12" s="7"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="32"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="27"/>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
@@ -1250,7 +1256,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="29"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="27"/>
       <c r="D13" s="7"/>
       <c r="E13" s="11"/>
@@ -1306,15 +1312,15 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="8"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1336,15 +1342,15 @@
     </row>
     <row r="16" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1397,7 +1403,7 @@
       <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="42" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="27"/>
@@ -1435,11 +1441,11 @@
       <c r="B19" s="16">
         <v>45348</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="13">
         <v>1</v>
       </c>
@@ -1471,14 +1477,14 @@
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
-      <c r="B20" s="46">
+      <c r="B20" s="22">
         <v>45349</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="13">
         <v>1.5</v>
       </c>
@@ -1510,17 +1516,23 @@
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="13"/>
+      <c r="B21" s="16">
+        <v>45352</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="13">
+        <v>0.75</v>
+      </c>
       <c r="G21" s="14">
         <v>50</v>
       </c>
       <c r="H21" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="1"/>
@@ -1544,9 +1556,9 @@
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="13"/>
       <c r="G22" s="14">
         <v>50</v>
@@ -1577,9 +1589,9 @@
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14">
         <v>50</v>
@@ -1610,9 +1622,9 @@
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="13"/>
       <c r="G24" s="14">
         <v>50</v>
@@ -1643,9 +1655,9 @@
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="16"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14">
         <v>50</v>
@@ -1676,9 +1688,9 @@
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14">
         <v>50</v>
@@ -1709,9 +1721,9 @@
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14">
         <v>50</v>
@@ -1741,17 +1753,17 @@
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="42" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="38"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="17">
         <f>SUM(H19:H27)</f>
-        <v>125</v>
+        <v>162.5</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="1"/>
@@ -1774,7 +1786,7 @@
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="40"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -1813,13 +1825,13 @@
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="38"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="21">
         <f>SUM(H28:H29)</f>
-        <v>125</v>
+        <v>162.5</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="1"/>
@@ -1926,12 +1938,12 @@
     </row>
     <row r="34" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -1984,7 +1996,7 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="27"/>
@@ -28838,6 +28850,34 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E33"/>
+    <mergeCell ref="B34:E34"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="B36:E40"/>
@@ -28847,34 +28887,6 @@
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/LIAM HOURS/INVOICE - DATA ANALYST CONSULTANT.xlsx
+++ b/LIAM HOURS/INVOICE - DATA ANALYST CONSULTANT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liamphanmusic/Documents/GitHub/Capstone-Project---A-World-Tour-in-Data/LIAM HOURS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF767EB-C07E-E544-9544-FB15CB2F8541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E768A84D-7AA6-AF4F-92AE-20B42C3E2B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Liam Phan - Data Analyst Consultant</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>27.02.2024 - 03.03.2024</t>
+  </si>
+  <si>
+    <t>Tuseday Call - Code Help and Github</t>
   </si>
 </sst>
 </file>
@@ -462,49 +465,29 @@
     <xf numFmtId="14" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -520,20 +503,40 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,7 +879,7 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:H12"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -922,17 +925,17 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="38"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -954,17 +957,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="50"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="8"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -986,11 +989,11 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="9"/>
@@ -1016,17 +1019,17 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="38"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="8"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1048,17 +1051,17 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="47">
+      <c r="G6" s="25">
         <v>1</v>
       </c>
-      <c r="H6" s="34"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="8"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1108,17 +1111,17 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="38"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="38"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="8"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1140,15 +1143,15 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="34"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1170,10 +1173,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="11"/>
@@ -1200,13 +1203,13 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="7"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="27"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1228,13 +1231,13 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="7"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="27"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1256,8 +1259,8 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="7"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -1312,15 +1315,15 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="8"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1403,11 +1406,11 @@
       <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="12" t="s">
         <v>12</v>
       </c>
@@ -1441,11 +1444,11 @@
       <c r="B19" s="16">
         <v>45348</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="13">
         <v>1</v>
       </c>
@@ -1480,11 +1483,11 @@
       <c r="B20" s="22">
         <v>45349</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="13">
         <v>1.5</v>
       </c>
@@ -1519,11 +1522,11 @@
       <c r="B21" s="16">
         <v>45352</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="13">
         <v>0.75</v>
       </c>
@@ -1555,17 +1558,23 @@
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="13"/>
+      <c r="B22" s="16">
+        <v>45356</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
       <c r="G22" s="14">
         <v>50</v>
       </c>
       <c r="H22" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="1"/>
@@ -1589,9 +1598,9 @@
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="24"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14">
         <v>50</v>
@@ -1622,9 +1631,9 @@
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="24"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="13"/>
       <c r="G24" s="14">
         <v>50</v>
@@ -1655,9 +1664,9 @@
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="16"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="24"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14">
         <v>50</v>
@@ -1688,9 +1697,9 @@
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="24"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14">
         <v>50</v>
@@ -1721,9 +1730,9 @@
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="24"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14">
         <v>50</v>
@@ -1753,17 +1762,17 @@
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="23" t="s">
+      <c r="B28" s="45"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="24"/>
+      <c r="G28" s="49"/>
       <c r="H28" s="17">
         <f>SUM(H19:H27)</f>
-        <v>162.5</v>
+        <v>212.5</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="1"/>
@@ -1786,10 +1795,10 @@
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="19" t="s">
         <v>16</v>
       </c>
@@ -1821,17 +1830,17 @@
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="25" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="24"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="21">
         <f>SUM(H28:H29)</f>
-        <v>162.5</v>
+        <v>212.5</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="1"/>
@@ -1854,10 +1863,10 @@
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -1882,10 +1891,10 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -1910,10 +1919,10 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -1938,12 +1947,12 @@
     </row>
     <row r="34" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -1996,12 +2005,12 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -2026,10 +2035,10 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -2054,10 +2063,10 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -2082,10 +2091,10 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -2110,10 +2119,10 @@
     </row>
     <row r="40" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -28850,6 +28859,34 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B36:E40"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B2:D2"/>
@@ -28859,34 +28896,6 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B36:E40"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/LIAM HOURS/INVOICE - DATA ANALYST CONSULTANT.xlsx
+++ b/LIAM HOURS/INVOICE - DATA ANALYST CONSULTANT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liamphanmusic/Documents/GitHub/Capstone-Project---A-World-Tour-in-Data/LIAM HOURS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernard/My Drive/Courses/Data Science EPFL 2023/Capstone-Project---A-World-Tour-in-Data/LIAM HOURS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E768A84D-7AA6-AF4F-92AE-20B42C3E2B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F0EBDA-23CD-E544-9C44-537836B08461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Liam Phan - Data Analyst Consultant</t>
   </si>
@@ -116,6 +116,12 @@
   <si>
     <t>Tuseday Call - Code Help and Github</t>
   </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Paid 05.03.2024</t>
+  </si>
 </sst>
 </file>
 
@@ -124,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0[$CHF]"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -245,6 +251,12 @@
       <color rgb="FF2F4858"/>
       <name val="Century Gothic"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2F4858"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -405,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -465,29 +477,49 @@
     <xf numFmtId="14" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -503,40 +535,21 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,8 +891,8 @@
   </sheetPr>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -925,17 +938,17 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="24"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -957,17 +970,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="32"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="8"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -989,11 +1002,11 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="9"/>
@@ -1019,17 +1032,17 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="24"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="8"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1051,17 +1064,17 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="25">
+      <c r="G6" s="47">
         <v>1</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="8"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1111,17 +1124,17 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="8"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1143,15 +1156,15 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="26"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1173,10 +1186,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="11"/>
@@ -1203,13 +1216,13 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="28"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="7"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="28"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1231,13 +1244,13 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="28"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="7"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="28"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1259,8 +1272,8 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="28"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="7"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -1315,15 +1328,15 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="8"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1406,11 +1419,11 @@
       <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="12" t="s">
         <v>12</v>
       </c>
@@ -1420,7 +1433,9 @@
       <c r="H18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="8"/>
+      <c r="I18" s="53" t="s">
+        <v>26</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1444,11 +1459,11 @@
       <c r="B19" s="16">
         <v>45348</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="13">
         <v>1</v>
       </c>
@@ -1459,7 +1474,9 @@
         <f t="shared" ref="H19:H27" si="0">F19*G19</f>
         <v>50</v>
       </c>
-      <c r="I19" s="8"/>
+      <c r="I19" s="53" t="s">
+        <v>27</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1483,11 +1500,11 @@
       <c r="B20" s="22">
         <v>45349</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="13">
         <v>1.5</v>
       </c>
@@ -1498,7 +1515,9 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I20" s="53" t="s">
+        <v>27</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1522,11 +1541,11 @@
       <c r="B21" s="16">
         <v>45352</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="13">
         <v>0.75</v>
       </c>
@@ -1537,7 +1556,9 @@
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="53" t="s">
+        <v>27</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1561,11 +1582,11 @@
       <c r="B22" s="16">
         <v>45356</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="13">
         <v>1</v>
       </c>
@@ -1576,7 +1597,9 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="53" t="s">
+        <v>27</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1598,9 +1621,9 @@
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="49"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14">
         <v>50</v>
@@ -1631,9 +1654,9 @@
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="49"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="13"/>
       <c r="G24" s="14">
         <v>50</v>
@@ -1664,9 +1687,9 @@
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="16"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="49"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14">
         <v>50</v>
@@ -1697,9 +1720,9 @@
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="49"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14">
         <v>50</v>
@@ -1730,9 +1753,9 @@
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="49"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14">
         <v>50</v>
@@ -1762,14 +1785,14 @@
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="48" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="49"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="17">
         <f>SUM(H19:H27)</f>
         <v>212.5</v>
@@ -1795,10 +1818,10 @@
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="19" t="s">
         <v>16</v>
       </c>
@@ -1830,14 +1853,14 @@
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="50" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="49"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="21">
         <f>SUM(H28:H29)</f>
         <v>212.5</v>
@@ -1863,10 +1886,10 @@
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -1891,10 +1914,10 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -1919,10 +1942,10 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -1947,12 +1970,12 @@
     </row>
     <row r="34" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -2005,12 +2028,12 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -2035,10 +2058,10 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -2063,10 +2086,10 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -2091,10 +2114,10 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -2119,10 +2142,10 @@
     </row>
     <row r="40" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -28859,6 +28882,34 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E33"/>
+    <mergeCell ref="B34:E34"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="B36:E40"/>
@@ -28868,34 +28919,6 @@
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/LIAM HOURS/INVOICE - DATA ANALYST CONSULTANT.xlsx
+++ b/LIAM HOURS/INVOICE - DATA ANALYST CONSULTANT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernard/My Drive/Courses/Data Science EPFL 2023/Capstone-Project---A-World-Tour-in-Data/LIAM HOURS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liamphanmusic/Documents/GitHub/Capstone-Project---A-World-Tour-in-Data/LIAM HOURS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F0EBDA-23CD-E544-9C44-537836B08461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02213D4-A5A5-1841-85F5-1B10D31838E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
@@ -117,10 +117,10 @@
     <t>Tuseday Call - Code Help and Github</t>
   </si>
   <si>
-    <t>Paid</t>
+    <t>Paid 05.03.2024</t>
   </si>
   <si>
-    <t>Paid 05.03.2024</t>
+    <t>PAID</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -477,49 +477,29 @@
     <xf numFmtId="14" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -535,21 +515,52 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,10 +900,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z994"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -904,7 +915,7 @@
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
     <col min="7" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="26" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -938,17 +949,17 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="38"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -970,17 +981,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="8"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1002,11 +1013,11 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="9"/>
@@ -1032,17 +1043,17 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="38"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="8"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1064,17 +1075,17 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="47">
+      <c r="G6" s="25">
         <v>1</v>
       </c>
-      <c r="H6" s="34"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="8"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1124,17 +1135,17 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="38"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="38"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="8"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1156,15 +1167,15 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="34"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1186,10 +1197,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="11"/>
@@ -1216,13 +1227,13 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="7"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="27"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1244,13 +1255,13 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="7"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="27"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1272,8 +1283,8 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="7"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -1328,15 +1339,15 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="8"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1419,11 +1430,11 @@
       <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="12" t="s">
         <v>12</v>
       </c>
@@ -1433,10 +1444,10 @@
       <c r="H18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="53" t="s">
-        <v>26</v>
+      <c r="I18" s="55" t="s">
+        <v>27</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="56"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1459,11 +1470,11 @@
       <c r="B19" s="16">
         <v>45348</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="13">
         <v>1</v>
       </c>
@@ -1471,13 +1482,13 @@
         <v>50</v>
       </c>
       <c r="H19" s="15">
-        <f t="shared" ref="H19:H27" si="0">F19*G19</f>
+        <f t="shared" ref="H19:H30" si="0">F19*G19</f>
         <v>50</v>
       </c>
       <c r="I19" s="53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="54"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1500,11 +1511,11 @@
       <c r="B20" s="22">
         <v>45349</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="13">
         <v>1.5</v>
       </c>
@@ -1516,9 +1527,9 @@
         <v>75</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1541,11 +1552,11 @@
       <c r="B21" s="16">
         <v>45352</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="13">
         <v>0.75</v>
       </c>
@@ -1557,9 +1568,9 @@
         <v>37.5</v>
       </c>
       <c r="I21" s="53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="54"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1582,11 +1593,11 @@
       <c r="B22" s="16">
         <v>45356</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="13">
         <v>1</v>
       </c>
@@ -1598,9 +1609,9 @@
         <v>50</v>
       </c>
       <c r="I22" s="53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="54"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1621,15 +1632,15 @@
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="24"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14">
         <v>50</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H23:H25" si="1">F23*G23</f>
         <v>0</v>
       </c>
       <c r="I23" s="8"/>
@@ -1654,15 +1665,15 @@
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="24"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="13"/>
       <c r="G24" s="14">
         <v>50</v>
       </c>
       <c r="H24" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="8"/>
@@ -1687,15 +1698,15 @@
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="16"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="24"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14">
         <v>50</v>
       </c>
       <c r="H25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="8"/>
@@ -1720,9 +1731,9 @@
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="24"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14">
         <v>50</v>
@@ -1753,9 +1764,9 @@
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="24"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14">
         <v>50</v>
@@ -1785,17 +1796,17 @@
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="23" t="s">
-        <v>15</v>
+      <c r="B28" s="16"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14">
+        <v>50</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="17">
-        <f>SUM(H19:H27)</f>
-        <v>212.5</v>
+      <c r="H28" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="1"/>
@@ -1818,18 +1829,16 @@
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="19" t="s">
-        <v>16</v>
+      <c r="B29" s="16"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14">
+        <v>50</v>
       </c>
-      <c r="G29" s="20">
-        <v>0</v>
-      </c>
-      <c r="H29" s="17">
-        <f>H28*G29</f>
+      <c r="H29" s="15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I29" s="8"/>
@@ -1853,17 +1862,17 @@
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="25" t="s">
-        <v>14</v>
+      <c r="B30" s="16"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14">
+        <v>50</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="21">
-        <f>SUM(H28:H29)</f>
-        <v>212.5</v>
+      <c r="H30" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="1"/>
@@ -1884,15 +1893,20 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+    <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="49"/>
+      <c r="H31" s="17">
+        <f>SUM(H19:H30)</f>
+        <v>212.5</v>
+      </c>
       <c r="I31" s="8"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1912,15 +1926,22 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+    <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0</v>
+      </c>
+      <c r="H32" s="17">
+        <f>H31*G32</f>
+        <v>0</v>
+      </c>
       <c r="I32" s="8"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1940,15 +1961,20 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+    <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="49"/>
+      <c r="H33" s="21">
+        <f>SUM(H31:H32)</f>
+        <v>212.5</v>
+      </c>
       <c r="I33" s="8"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1968,17 +1994,15 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="B34" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="8"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2000,10 +2024,10 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -2028,12 +2052,10 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
-      <c r="B36" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -2056,12 +2078,14 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
+      <c r="B37" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -2086,10 +2110,10 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -2114,10 +2138,12 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="B39" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -2140,16 +2166,16 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2170,14 +2196,14 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2198,14 +2224,14 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2224,12 +2250,12 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -28880,8 +28906,123 @@
       <c r="Y994" s="1"/>
       <c r="Z994" s="1"/>
     </row>
+    <row r="995" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A995" s="1"/>
+      <c r="B995" s="1"/>
+      <c r="C995" s="1"/>
+      <c r="D995" s="1"/>
+      <c r="E995" s="1"/>
+      <c r="F995" s="1"/>
+      <c r="G995" s="1"/>
+      <c r="H995" s="1"/>
+      <c r="I995" s="1"/>
+      <c r="J995" s="1"/>
+      <c r="K995" s="1"/>
+      <c r="L995" s="1"/>
+      <c r="M995" s="1"/>
+      <c r="N995" s="1"/>
+      <c r="O995" s="1"/>
+      <c r="P995" s="1"/>
+      <c r="Q995" s="1"/>
+      <c r="R995" s="1"/>
+      <c r="S995" s="1"/>
+      <c r="T995" s="1"/>
+      <c r="U995" s="1"/>
+      <c r="V995" s="1"/>
+      <c r="W995" s="1"/>
+      <c r="X995" s="1"/>
+      <c r="Y995" s="1"/>
+      <c r="Z995" s="1"/>
+    </row>
+    <row r="996" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A996" s="1"/>
+      <c r="B996" s="1"/>
+      <c r="C996" s="1"/>
+      <c r="D996" s="1"/>
+      <c r="E996" s="1"/>
+      <c r="F996" s="1"/>
+      <c r="G996" s="1"/>
+      <c r="H996" s="1"/>
+      <c r="I996" s="1"/>
+      <c r="J996" s="1"/>
+      <c r="K996" s="1"/>
+      <c r="L996" s="1"/>
+      <c r="M996" s="1"/>
+      <c r="N996" s="1"/>
+      <c r="O996" s="1"/>
+      <c r="P996" s="1"/>
+      <c r="Q996" s="1"/>
+      <c r="R996" s="1"/>
+      <c r="S996" s="1"/>
+      <c r="T996" s="1"/>
+      <c r="U996" s="1"/>
+      <c r="V996" s="1"/>
+      <c r="W996" s="1"/>
+      <c r="X996" s="1"/>
+      <c r="Y996" s="1"/>
+      <c r="Z996" s="1"/>
+    </row>
+    <row r="997" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A997" s="1"/>
+      <c r="B997" s="1"/>
+      <c r="C997" s="1"/>
+      <c r="D997" s="1"/>
+      <c r="E997" s="1"/>
+      <c r="F997" s="1"/>
+      <c r="G997" s="1"/>
+      <c r="H997" s="1"/>
+      <c r="I997" s="1"/>
+      <c r="J997" s="1"/>
+      <c r="K997" s="1"/>
+      <c r="L997" s="1"/>
+      <c r="M997" s="1"/>
+      <c r="N997" s="1"/>
+      <c r="O997" s="1"/>
+      <c r="P997" s="1"/>
+      <c r="Q997" s="1"/>
+      <c r="R997" s="1"/>
+      <c r="S997" s="1"/>
+      <c r="T997" s="1"/>
+      <c r="U997" s="1"/>
+      <c r="V997" s="1"/>
+      <c r="W997" s="1"/>
+      <c r="X997" s="1"/>
+      <c r="Y997" s="1"/>
+      <c r="Z997" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="40">
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B39:E43"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B2:D2"/>
@@ -28891,34 +29032,6 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B36:E40"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/LIAM HOURS/INVOICE - DATA ANALYST CONSULTANT.xlsx
+++ b/LIAM HOURS/INVOICE - DATA ANALYST CONSULTANT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liamphanmusic/Documents/GitHub/Capstone-Project---A-World-Tour-in-Data/LIAM HOURS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02213D4-A5A5-1841-85F5-1B10D31838E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1337059C-6D4E-0E4A-AAB5-BA7FDD3943B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Liam Phan - Data Analyst Consultant</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>PAID</t>
+  </si>
+  <si>
+    <t>R Markdown - 2 Maps Coding</t>
+  </si>
+  <si>
+    <t>07,03.24</t>
   </si>
 </sst>
 </file>
@@ -417,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -477,29 +483,57 @@
     <xf numFmtId="14" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -515,51 +549,22 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,7 +908,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:E31"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -949,17 +954,17 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="24"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -981,17 +986,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="32"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="8"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1013,11 +1018,11 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="9"/>
@@ -1043,17 +1048,17 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="24"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="8"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1075,17 +1080,17 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="25">
+      <c r="G6" s="49">
         <v>1</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="8"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1135,17 +1140,17 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="8"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1167,15 +1172,15 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="26"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1197,10 +1202,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="11"/>
@@ -1227,13 +1232,13 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="28"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="7"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="28"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1255,13 +1260,13 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="28"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="7"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="28"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1283,8 +1288,8 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="28"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="7"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -1339,15 +1344,15 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="8"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1369,15 +1374,15 @@
     </row>
     <row r="16" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1430,11 +1435,11 @@
       <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="12" t="s">
         <v>12</v>
       </c>
@@ -1444,10 +1449,10 @@
       <c r="H18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="56"/>
+      <c r="J18" s="26"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1470,11 +1475,11 @@
       <c r="B19" s="16">
         <v>45348</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="13">
         <v>1</v>
       </c>
@@ -1485,10 +1490,10 @@
         <f t="shared" ref="H19:H30" si="0">F19*G19</f>
         <v>50</v>
       </c>
-      <c r="I19" s="53" t="s">
+      <c r="I19" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="54"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1511,11 +1516,11 @@
       <c r="B20" s="22">
         <v>45349</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="13">
         <v>1.5</v>
       </c>
@@ -1526,10 +1531,10 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="I20" s="53" t="s">
+      <c r="I20" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="54"/>
+      <c r="J20" s="24"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1552,11 +1557,11 @@
       <c r="B21" s="16">
         <v>45352</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="13">
         <v>0.75</v>
       </c>
@@ -1567,10 +1572,10 @@
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="I21" s="53" t="s">
+      <c r="I21" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="54"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1593,11 +1598,11 @@
       <c r="B22" s="16">
         <v>45356</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="13">
         <v>1</v>
       </c>
@@ -1608,10 +1613,10 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="54"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1631,17 +1636,23 @@
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
       <c r="G23" s="14">
         <v>50</v>
       </c>
       <c r="H23" s="15">
         <f t="shared" ref="H23:H25" si="1">F23*G23</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="1"/>
@@ -1665,9 +1676,9 @@
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="49"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="13"/>
       <c r="G24" s="14">
         <v>50</v>
@@ -1698,9 +1709,9 @@
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="16"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="49"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14">
         <v>50</v>
@@ -1731,9 +1742,9 @@
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="49"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14">
         <v>50</v>
@@ -1764,9 +1775,9 @@
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="49"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14">
         <v>50</v>
@@ -1797,9 +1808,9 @@
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="16"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="49"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14">
         <v>50</v>
@@ -1830,9 +1841,9 @@
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="16"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="49"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14">
         <v>50</v>
@@ -1863,9 +1874,9 @@
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="49"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14">
         <v>50</v>
@@ -1895,17 +1906,17 @@
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="48" t="s">
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="49"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="17">
-        <f>SUM(H19:H30)</f>
-        <v>212.5</v>
+        <f>SUMIF(I19:I30,"",H19:H30)</f>
+        <v>50</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="1"/>
@@ -1928,10 +1939,10 @@
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="19" t="s">
         <v>16</v>
       </c>
@@ -1963,17 +1974,17 @@
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="50" t="s">
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="49"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="21">
         <f>SUM(H31:H32)</f>
-        <v>212.5</v>
+        <v>50</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="1"/>
@@ -1996,10 +2007,10 @@
     </row>
     <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -2024,10 +2035,10 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -2052,10 +2063,10 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -2080,12 +2091,12 @@
     </row>
     <row r="37" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -2138,12 +2149,12 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -2168,10 +2179,10 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -2196,10 +2207,10 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -2224,10 +2235,10 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -2252,10 +2263,10 @@
     </row>
     <row r="43" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -28992,6 +29003,34 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E36"/>
+    <mergeCell ref="B37:E37"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="B39:E43"/>
@@ -29004,34 +29043,6 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/LIAM HOURS/INVOICE - DATA ANALYST CONSULTANT.xlsx
+++ b/LIAM HOURS/INVOICE - DATA ANALYST CONSULTANT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liamphanmusic/Documents/GitHub/Capstone-Project---A-World-Tour-in-Data/LIAM HOURS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernard/My Drive/Courses/Data Science EPFL 2023/Capstone-Project---A-World-Tour-in-Data/LIAM HOURS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1337059C-6D4E-0E4A-AAB5-BA7FDD3943B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C0B370-C6DE-544D-AFBA-4631EBB56ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Liam Phan - Data Analyst Consultant</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>07,03.24</t>
+  </si>
+  <si>
+    <t>Paid 25.03.2024</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -495,45 +498,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -549,22 +536,41 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,7 +914,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -954,17 +960,17 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="40"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -986,17 +992,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="53"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="8"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1018,11 +1024,11 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="9"/>
@@ -1048,17 +1054,17 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="40"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="8"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1080,17 +1086,17 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="49">
+      <c r="G6" s="29">
         <v>1</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="8"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1140,17 +1146,17 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="40"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="8"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1172,15 +1178,15 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="36"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1202,10 +1208,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="11"/>
@@ -1232,13 +1238,13 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="7"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="31"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1260,13 +1266,13 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="31"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="7"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="31"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1288,8 +1294,8 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="7"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -1344,15 +1350,15 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="8"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1374,15 +1380,15 @@
     </row>
     <row r="16" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1435,11 +1441,11 @@
       <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="12" t="s">
         <v>12</v>
       </c>
@@ -1475,11 +1481,11 @@
       <c r="B19" s="16">
         <v>45348</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="13">
         <v>1</v>
       </c>
@@ -1516,11 +1522,11 @@
       <c r="B20" s="22">
         <v>45349</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="13">
         <v>1.5</v>
       </c>
@@ -1557,11 +1563,11 @@
       <c r="B21" s="16">
         <v>45352</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="13">
         <v>0.75</v>
       </c>
@@ -1598,11 +1604,11 @@
       <c r="B22" s="16">
         <v>45356</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="13">
         <v>1</v>
       </c>
@@ -1639,11 +1645,11 @@
       <c r="B23" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
       <c r="F23" s="13">
         <v>1</v>
       </c>
@@ -1654,7 +1660,9 @@
         <f t="shared" ref="H23:H25" si="1">F23*G23</f>
         <v>50</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="56" t="s">
+        <v>30</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1677,8 +1685,8 @@
       <c r="A24" s="5"/>
       <c r="B24" s="16"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="13"/>
       <c r="G24" s="14">
         <v>50</v>
@@ -1710,8 +1718,8 @@
       <c r="A25" s="5"/>
       <c r="B25" s="16"/>
       <c r="C25" s="55"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14">
         <v>50</v>
@@ -1743,8 +1751,8 @@
       <c r="A26" s="5"/>
       <c r="B26" s="16"/>
       <c r="C26" s="55"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14">
         <v>50</v>
@@ -1776,8 +1784,8 @@
       <c r="A27" s="5"/>
       <c r="B27" s="16"/>
       <c r="C27" s="55"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14">
         <v>50</v>
@@ -1809,8 +1817,8 @@
       <c r="A28" s="5"/>
       <c r="B28" s="16"/>
       <c r="C28" s="55"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14">
         <v>50</v>
@@ -1842,8 +1850,8 @@
       <c r="A29" s="5"/>
       <c r="B29" s="16"/>
       <c r="C29" s="55"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14">
         <v>50</v>
@@ -1875,8 +1883,8 @@
       <c r="A30" s="5"/>
       <c r="B30" s="16"/>
       <c r="C30" s="55"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14">
         <v>50</v>
@@ -1906,17 +1914,17 @@
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="27" t="s">
+      <c r="B31" s="49"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="28"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="17">
         <f>SUMIF(I19:I30,"",H19:H30)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="1"/>
@@ -1939,10 +1947,10 @@
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
       <c r="F32" s="19" t="s">
         <v>16</v>
       </c>
@@ -1974,17 +1982,17 @@
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="29" t="s">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="28"/>
+      <c r="G33" s="53"/>
       <c r="H33" s="21">
         <f>SUM(H31:H32)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="1"/>
@@ -2007,10 +2015,10 @@
     </row>
     <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -2035,10 +2043,10 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -2063,10 +2071,10 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -2091,12 +2099,12 @@
     </row>
     <row r="37" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -2149,12 +2157,12 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -2179,10 +2187,10 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -2207,10 +2215,10 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -2235,10 +2243,10 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -2263,10 +2271,10 @@
     </row>
     <row r="43" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -29003,34 +29011,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E36"/>
-    <mergeCell ref="B37:E37"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="B39:E43"/>
@@ -29043,6 +29023,34 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/LIAM HOURS/INVOICE - DATA ANALYST CONSULTANT.xlsx
+++ b/LIAM HOURS/INVOICE - DATA ANALYST CONSULTANT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernard/My Drive/Courses/Data Science EPFL 2023/Capstone-Project---A-World-Tour-in-Data/LIAM HOURS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liamphanmusic/Documents/GitHub/Capstone-Project---A-World-Tour-in-Data/LIAM HOURS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C0B370-C6DE-544D-AFBA-4631EBB56ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9405FB19-2D1A-4F4C-AC30-4DB979553CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Liam Phan - Data Analyst Consultant</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Friday Call - Code review</t>
   </si>
   <si>
-    <t>27.02.2024 - 03.03.2024</t>
-  </si>
-  <si>
     <t>Tuseday Call - Code Help and Github</t>
   </si>
   <si>
@@ -130,6 +127,12 @@
   </si>
   <si>
     <t>Paid 25.03.2024</t>
+  </si>
+  <si>
+    <t>Quick Call</t>
+  </si>
+  <si>
+    <t>27.02.2024 - 01.05.2024</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -498,29 +501,51 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -536,41 +561,22 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,8 +919,8 @@
   </sheetPr>
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="133" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -960,17 +966,17 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -992,17 +998,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="35" t="s">
-        <v>24</v>
+      <c r="G3" s="54" t="s">
+        <v>31</v>
       </c>
-      <c r="H3" s="36"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="8"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1024,7 +1030,7 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="32"/>
@@ -1054,17 +1060,17 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="28"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="8"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1086,17 +1092,17 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="56" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="29">
+      <c r="G6" s="51">
         <v>1</v>
       </c>
-      <c r="H6" s="30"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="8"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1146,17 +1152,17 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="8"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1178,15 +1184,15 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="34"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="32"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="30"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1208,7 +1214,7 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="50" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="32"/>
@@ -1238,12 +1244,12 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="34"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="32"/>
       <c r="D11" s="7"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="32"/>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
@@ -1266,12 +1272,12 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="34"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="32"/>
       <c r="D12" s="7"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="39"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="32"/>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
@@ -1294,7 +1300,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="34"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="32"/>
       <c r="D13" s="7"/>
       <c r="E13" s="11"/>
@@ -1350,15 +1356,15 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="8"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1441,7 +1447,7 @@
       <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="46" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="32"/>
@@ -1456,7 +1462,7 @@
         <v>14</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="1"/>
@@ -1481,11 +1487,11 @@
       <c r="B19" s="16">
         <v>45348</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="13">
         <v>1</v>
       </c>
@@ -1497,7 +1503,7 @@
         <v>50</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="1"/>
@@ -1522,11 +1528,11 @@
       <c r="B20" s="22">
         <v>45349</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="13">
         <v>1.5</v>
       </c>
@@ -1538,7 +1544,7 @@
         <v>75</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="1"/>
@@ -1563,11 +1569,11 @@
       <c r="B21" s="16">
         <v>45352</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="13">
         <v>0.75</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>37.5</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="1"/>
@@ -1604,11 +1610,11 @@
       <c r="B22" s="16">
         <v>45356</v>
       </c>
-      <c r="C22" s="46" t="s">
-        <v>25</v>
+      <c r="C22" s="33" t="s">
+        <v>24</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="13">
         <v>1</v>
       </c>
@@ -1620,7 +1626,7 @@
         <v>50</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="1"/>
@@ -1643,13 +1649,13 @@
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
+      <c r="C23" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="13">
         <v>1</v>
       </c>
@@ -1660,8 +1666,8 @@
         <f t="shared" ref="H23:H25" si="1">F23*G23</f>
         <v>50</v>
       </c>
-      <c r="I23" s="56" t="s">
-        <v>30</v>
+      <c r="I23" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1683,17 +1689,24 @@
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="13"/>
+      <c r="B24" s="16">
+        <v>45377</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="57">
+        <f>20/60</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="G24" s="14">
         <v>50</v>
       </c>
       <c r="H24" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="1"/>
@@ -1717,9 +1730,9 @@
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="16"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14">
         <v>50</v>
@@ -1750,9 +1763,9 @@
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14">
         <v>50</v>
@@ -1783,9 +1796,9 @@
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14">
         <v>50</v>
@@ -1816,9 +1829,9 @@
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="16"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14">
         <v>50</v>
@@ -1849,9 +1862,9 @@
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="16"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14">
         <v>50</v>
@@ -1882,9 +1895,9 @@
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14">
         <v>50</v>
@@ -1914,17 +1927,17 @@
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="52" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="53"/>
+      <c r="G31" s="29"/>
       <c r="H31" s="17">
         <f>SUMIF(I19:I30,"",H19:H30)</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="1"/>
@@ -1947,7 +1960,7 @@
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="50"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
@@ -1986,13 +1999,13 @@
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="53"/>
+      <c r="G33" s="29"/>
       <c r="H33" s="21">
         <f>SUM(H31:H32)</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="1"/>
@@ -2099,12 +2112,12 @@
     </row>
     <row r="37" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -2157,7 +2170,7 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C39" s="32"/>
@@ -29011,6 +29024,34 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E36"/>
+    <mergeCell ref="B37:E37"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="B39:E43"/>
@@ -29023,34 +29064,6 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
